--- a/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
+++ b/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
@@ -363,7 +363,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
+++ b/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
@@ -14,7 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>MSSV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Họ Tên</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Điện Thoại</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Điểm Toán</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Điểm Văn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Điểm Trung Bình</x:t>
+  </x:si>
+  <x:si>
+    <x:t>utw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gsfgs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdfbs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fgb</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,7 +405,68 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
+        <x:v>4.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
+++ b/Lab2/bin/Debug/net8.0-windows/QLSV.xlsx
@@ -14,44 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>MSSV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Họ Tên</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Điện Thoại</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Điểm Toán</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Điểm Văn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Điểm Trung Bình</x:t>
-  </x:si>
-  <x:si>
-    <x:t>utw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gsfgs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gdfbs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fgb</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,73 +363,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F3"/>
+  <x:dimension ref="A1:F4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>4.5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
